--- a/data/trans_dic/POLIPATOLOGIA_5-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.09569197463467444</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2186683273235661</v>
+        <v>0.218668327323566</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05699293208703285</v>
+        <v>0.05619688801274925</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03499782593784703</v>
+        <v>0.03638594138181672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.033946238933612</v>
+        <v>0.03343607651629198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1255524633137068</v>
+        <v>0.1233174053130144</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08705124847908376</v>
+        <v>0.08892251082845416</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1175788361844783</v>
+        <v>0.1155076553716635</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1208450677499089</v>
+        <v>0.1210594989758084</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2401895029278081</v>
+        <v>0.241542127508223</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08098940821666339</v>
+        <v>0.080564763959733</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08214338275813055</v>
+        <v>0.08154369385830405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0837554941159068</v>
+        <v>0.08385486536360907</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1986418081547629</v>
+        <v>0.1976243900683628</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09895687382583578</v>
+        <v>0.1017230860965286</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06288160249937574</v>
+        <v>0.06568069252268764</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05873076304269864</v>
+        <v>0.05830354299909098</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1880224697191273</v>
+        <v>0.1898511309961283</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.125495378630228</v>
+        <v>0.1282707283271219</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.159661338157351</v>
+        <v>0.1576842849581173</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1622420959344403</v>
+        <v>0.1624952961679137</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2998118814710157</v>
+        <v>0.2992604454829669</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1109610695866233</v>
+        <v>0.1114253122554103</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1080266533862672</v>
+        <v>0.108145175379472</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1092105032712559</v>
+        <v>0.1090273295200273</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2421312670017946</v>
+        <v>0.2403566204486104</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03116955910843312</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08526074633872784</v>
+        <v>0.08526074633872782</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0482393040897432</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01789937021602908</v>
+        <v>0.01715553597153405</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02242122162429328</v>
+        <v>0.02288537623427526</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02103700841625428</v>
+        <v>0.02147080976375068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07107662377054996</v>
+        <v>0.06979167408554199</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03526254436584618</v>
+        <v>0.03647736040514542</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0722686264280324</v>
+        <v>0.07292650493956618</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0667295619645953</v>
+        <v>0.06701130499548717</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.159260749808226</v>
+        <v>0.1591393855722116</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0296959588954078</v>
+        <v>0.02972999689383683</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05295872583719265</v>
+        <v>0.05203170464186854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04953138002669107</v>
+        <v>0.04840644960329412</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1215007056154892</v>
+        <v>0.1229027591081636</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03641688961888241</v>
+        <v>0.03669899390517986</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04736282839467634</v>
+        <v>0.04852584762164313</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04399508289203987</v>
+        <v>0.04337116362119924</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.102544023861427</v>
+        <v>0.103596603275146</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06232768467981525</v>
+        <v>0.06291263881642829</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1089514453700189</v>
+        <v>0.1088459672164647</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1031759678965582</v>
+        <v>0.1042924887365391</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1976133168870121</v>
+        <v>0.19696085568097</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04537453098720823</v>
+        <v>0.04610563717766212</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07435902438469734</v>
+        <v>0.07490005789888614</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07033815005614931</v>
+        <v>0.07003415837024925</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1476733335804892</v>
+        <v>0.1479119781459537</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.04892550781052935</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09441830694818275</v>
+        <v>0.09441830694818278</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01191935353269222</v>
+        <v>0.01113033510098692</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02750487995121939</v>
+        <v>0.02695901898808745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02192611796421241</v>
+        <v>0.02238880745111953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05083760344949501</v>
+        <v>0.05102289096816139</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03645994476289319</v>
+        <v>0.03762308590773955</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.058259628040487</v>
+        <v>0.05769484800322545</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05007080057518193</v>
+        <v>0.05104236291815915</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1086852875327805</v>
+        <v>0.1106539748834605</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02599535259362452</v>
+        <v>0.02583548988542162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04635558582391407</v>
+        <v>0.04525100354445951</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03841774975909697</v>
+        <v>0.03768598415149236</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08405944022781819</v>
+        <v>0.08215405951040304</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02852214424982161</v>
+        <v>0.02792282400519768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05319550052180236</v>
+        <v>0.05229754397937184</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04702223846573333</v>
+        <v>0.04714637193424966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07831365369851977</v>
+        <v>0.0788696857582773</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06532332141186706</v>
+        <v>0.06659584755219307</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09452397610818068</v>
+        <v>0.09469296878119934</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08912704975527169</v>
+        <v>0.08892013892353975</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1406105664638966</v>
+        <v>0.1421099472991473</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04233246073648655</v>
+        <v>0.04111862061898734</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06891227718146398</v>
+        <v>0.06838499272644387</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06075347948314873</v>
+        <v>0.06155041307808575</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.105351433966757</v>
+        <v>0.1046249031586432</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.04003308188295637</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09469639613992697</v>
+        <v>0.09469639613992695</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01786958269161715</v>
+        <v>0.01794948231292228</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01460076529311511</v>
+        <v>0.0145554937136446</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009918536791265699</v>
+        <v>0.01049720209123204</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05635178901975842</v>
+        <v>0.0565491548178771</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03799329337050021</v>
+        <v>0.03645919941608294</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04332335995816373</v>
+        <v>0.04604408767085281</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03967630082203957</v>
+        <v>0.03942557825169561</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1023550286396891</v>
+        <v>0.1045088430637938</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03043432822483996</v>
+        <v>0.0299632388416531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03367805629719175</v>
+        <v>0.03340155060471792</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02783423484566677</v>
+        <v>0.02873459536024441</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0842376349923816</v>
+        <v>0.08428035053527073</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0505610382907219</v>
+        <v>0.04890763774601365</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04804085249736228</v>
+        <v>0.0483810626290756</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03725468459869272</v>
+        <v>0.03675804204501472</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08758687066723039</v>
+        <v>0.08868028612855659</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09276989510961353</v>
+        <v>0.09159088013148194</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09585276730624567</v>
+        <v>0.09802413518675046</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08847321193371779</v>
+        <v>0.08551588255321924</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1358529203317255</v>
+        <v>0.135753647545065</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06021185762503226</v>
+        <v>0.06017093655859227</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06180649838531383</v>
+        <v>0.06310432616036479</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05516301500241651</v>
+        <v>0.05569323820368073</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1072665914905854</v>
+        <v>0.1063245549690057</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03460129868088939</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08482691209534919</v>
+        <v>0.08482691209534918</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0662397469238095</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02767935138101559</v>
+        <v>0.0276219097346494</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0322552307969332</v>
+        <v>0.03162079732198259</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02828534465557585</v>
+        <v>0.02852644910636166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07667458724400394</v>
+        <v>0.07669677211283052</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0580640841131264</v>
+        <v>0.05793182157785508</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08814675558179613</v>
+        <v>0.08755363524081959</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08677722625332136</v>
+        <v>0.0868668090723565</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1545188565699053</v>
+        <v>0.1544751817416375</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04474672711468995</v>
+        <v>0.04448340549805059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06280270784141113</v>
+        <v>0.06232370428664356</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.060626966035034</v>
+        <v>0.06018448888769137</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1190420092011411</v>
+        <v>0.119179650190257</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0399726071786264</v>
+        <v>0.04015846038406402</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04635937177887114</v>
+        <v>0.04559914248845649</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04074420924303325</v>
+        <v>0.04118630646393681</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0937395454892285</v>
+        <v>0.09377308696561458</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07672914446022439</v>
+        <v>0.07589160111776834</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1094166356245037</v>
+        <v>0.1093239026437068</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1087603109332816</v>
+        <v>0.1084394791171682</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1738205470096797</v>
+        <v>0.1737606191594129</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05565587332960965</v>
+        <v>0.05557340051961947</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07532073955851179</v>
+        <v>0.07516105667826056</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07295732791955799</v>
+        <v>0.07322208507816977</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1318369157353669</v>
+        <v>0.1320165320920946</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>33292</v>
+        <v>32827</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36535</v>
+        <v>37985</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>38291</v>
+        <v>37716</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>62618</v>
+        <v>61503</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>80290</v>
+        <v>82016</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>131680</v>
+        <v>129360</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>152212</v>
+        <v>152482</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>149777</v>
+        <v>150621</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>122008</v>
+        <v>121369</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>177747</v>
+        <v>176449</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>199971</v>
+        <v>200208</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>222940</v>
+        <v>221798</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>57805</v>
+        <v>59421</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>65644</v>
+        <v>68566</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>66248</v>
+        <v>65766</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>93774</v>
+        <v>94686</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>115749</v>
+        <v>118308</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>178809</v>
+        <v>176595</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>204354</v>
+        <v>204673</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>186957</v>
+        <v>186613</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>167160</v>
+        <v>167859</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>233755</v>
+        <v>234011</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>260746</v>
+        <v>260309</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>271749</v>
+        <v>269757</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19294</v>
+        <v>18492</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21907</v>
+        <v>22361</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>19119</v>
+        <v>19513</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>68243</v>
+        <v>67010</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>37291</v>
+        <v>38576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>79081</v>
+        <v>79801</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>67162</v>
+        <v>67445</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>177711</v>
+        <v>177576</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>63414</v>
+        <v>63486</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>109695</v>
+        <v>107775</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>94867</v>
+        <v>92713</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>252234</v>
+        <v>255144</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39254</v>
+        <v>39558</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>46277</v>
+        <v>47413</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>39984</v>
+        <v>39417</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>98456</v>
+        <v>99467</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>65914</v>
+        <v>66533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>119221</v>
+        <v>119106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>103844</v>
+        <v>104968</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>220507</v>
+        <v>219779</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>96894</v>
+        <v>98455</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>154022</v>
+        <v>155143</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>134719</v>
+        <v>134136</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>306568</v>
+        <v>307063</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13369</v>
+        <v>12484</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24345</v>
+        <v>23862</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18062</v>
+        <v>18443</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>53200</v>
+        <v>53394</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36239</v>
+        <v>37395</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>51024</v>
+        <v>50529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>38608</v>
+        <v>39357</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>113863</v>
+        <v>115926</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>54994</v>
+        <v>54656</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>81628</v>
+        <v>79683</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>61269</v>
+        <v>60102</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>176031</v>
+        <v>172041</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31990</v>
+        <v>31318</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>47084</v>
+        <v>46289</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38735</v>
+        <v>38837</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>81954</v>
+        <v>82535</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>64927</v>
+        <v>66192</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>82784</v>
+        <v>82932</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>68722</v>
+        <v>68563</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>147310</v>
+        <v>148880</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>89556</v>
+        <v>86988</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>121348</v>
+        <v>120420</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>96891</v>
+        <v>98162</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>220619</v>
+        <v>219097</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7991</v>
+        <v>8027</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7345</v>
+        <v>7322</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5026</v>
+        <v>5319</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>54995</v>
+        <v>55188</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12962</v>
+        <v>12438</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19614</v>
+        <v>20846</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>19429</v>
+        <v>19307</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>93178</v>
+        <v>95139</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>23993</v>
+        <v>23622</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>32188</v>
+        <v>31924</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>27734</v>
+        <v>28631</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>158895</v>
+        <v>158976</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22611</v>
+        <v>21871</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24166</v>
+        <v>24337</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18877</v>
+        <v>18625</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>85479</v>
+        <v>86546</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31649</v>
+        <v>31247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>43396</v>
+        <v>44379</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>43325</v>
+        <v>41877</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>123673</v>
+        <v>123583</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>47468</v>
+        <v>47436</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>59072</v>
+        <v>60312</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>54964</v>
+        <v>55493</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>202334</v>
+        <v>200557</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>89427</v>
+        <v>89242</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>109963</v>
+        <v>107800</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>95245</v>
+        <v>96057</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>266926</v>
+        <v>267003</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>192481</v>
+        <v>192042</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>312279</v>
+        <v>310178</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>306045</v>
+        <v>306361</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>571320</v>
+        <v>571159</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>292903</v>
+        <v>291179</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>436596</v>
+        <v>433266</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>417967</v>
+        <v>414916</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>854567</v>
+        <v>855555</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>129145</v>
+        <v>129745</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>158046</v>
+        <v>155454</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>137197</v>
+        <v>138686</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>326334</v>
+        <v>326451</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>254355</v>
+        <v>251578</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>387633</v>
+        <v>387304</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>383575</v>
+        <v>382443</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>642687</v>
+        <v>642465</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>364312</v>
+        <v>363772</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>523620</v>
+        <v>522510</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>502973</v>
+        <v>504799</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>946418</v>
+        <v>947707</v>
       </c>
     </row>
     <row r="24">
